--- a/-130359 .xlsx
+++ b/-130359 .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t xml:space="preserve">           CONDICIONES DE TRABAJO, INSPECCION Y COMENTARIOS PARA PIEZAS LIBERADAS</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>INSPECCIÓN 100%</t>
-  </si>
-  <si>
-    <t>12/10/2024</t>
   </si>
   <si>
     <t>130359 </t>
@@ -2395,28 +2392,20 @@
       <c r="C9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>39</v>
-      </c>
+      <c r="D9" s="50"/>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="51" t="s">
-        <v>34</v>
-      </c>
+      <c r="I9" s="51"/>
       <c r="J9" s="51"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="51" t="s">
-        <v>35</v>
-      </c>
+      <c r="L9" s="51"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="51" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
       <c r="S9" s="51"/>
       <c r="T9" s="51"/>
@@ -5868,7 +5857,7 @@
       <c r="L3" s="97"/>
       <c r="M3" s="97"/>
       <c r="N3" s="98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="98"/>
       <c r="P3" s="98"/>
@@ -5879,7 +5868,7 @@
       <c r="S3" s="100"/>
       <c r="T3" s="100"/>
       <c r="U3" s="98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V3" s="98"/>
       <c r="W3" s="98"/>
@@ -5889,7 +5878,7 @@
       <c r="Y3" s="100"/>
       <c r="Z3" s="100"/>
       <c r="AA3" s="98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="98"/>
       <c r="AC3" s="98"/>
@@ -5947,7 +5936,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="114"/>
       <c r="O5" s="5"/>
@@ -5955,7 +5944,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R5" s="115"/>
       <c r="S5" s="2"/>
@@ -5990,27 +5979,27 @@
       <c r="H6" s="71"/>
       <c r="I6" s="75"/>
       <c r="J6" s="127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="80"/>
       <c r="L6" s="127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="80"/>
       <c r="N6" s="127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" s="87"/>
       <c r="P6" s="127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="87"/>
       <c r="R6" s="127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" s="80"/>
       <c r="T6" s="127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U6" s="80"/>
       <c r="V6" s="127"/>
@@ -6137,51 +6126,51 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="137" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="E10" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="140" t="s">
+      <c r="F10" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="141" t="s">
+      <c r="G10" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="143" t="s">
-        <v>59</v>
-      </c>
       <c r="I10" s="135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="135"/>
       <c r="K10" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L10" s="135"/>
       <c r="M10" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" s="135"/>
       <c r="O10" s="135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="135"/>
       <c r="Q10" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R10" s="135"/>
       <c r="S10" s="135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T10" s="135"/>
       <c r="U10" s="126"/>
@@ -7232,7 +7221,7 @@
       <c r="L41" s="97"/>
       <c r="M41" s="97"/>
       <c r="N41" s="98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O41" s="98"/>
       <c r="P41" s="98"/>
@@ -7243,7 +7232,7 @@
       <c r="S41" s="100"/>
       <c r="T41" s="100"/>
       <c r="U41" s="98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V41" s="98"/>
       <c r="W41" s="98"/>
@@ -7319,7 +7308,7 @@
         <v>20</v>
       </c>
       <c r="U43" s="115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V43" s="115"/>
       <c r="W43" s="2"/>
@@ -8552,7 +8541,7 @@
       <c r="L79" s="97"/>
       <c r="M79" s="97"/>
       <c r="N79" s="98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O79" s="98"/>
       <c r="P79" s="98"/>
@@ -8563,7 +8552,7 @@
       <c r="S79" s="100"/>
       <c r="T79" s="100"/>
       <c r="U79" s="98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V79" s="98"/>
       <c r="W79" s="98"/>
@@ -8645,7 +8634,7 @@
         <v>21</v>
       </c>
       <c r="Y81" s="115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z81" s="115"/>
       <c r="AA81" s="2"/>
@@ -9840,7 +9829,7 @@
       <c r="L117" s="97"/>
       <c r="M117" s="97"/>
       <c r="N117" s="98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O117" s="98"/>
       <c r="P117" s="98"/>
@@ -9851,7 +9840,7 @@
       <c r="S117" s="100"/>
       <c r="T117" s="100"/>
       <c r="U117" s="98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V117" s="98"/>
       <c r="W117" s="98"/>
@@ -9939,7 +9928,7 @@
         <v>22</v>
       </c>
       <c r="AC119" s="115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD119" s="115"/>
     </row>
